--- a/medicine/Mort/Vive_la_mort/Vive_la_mort.xlsx
+++ b/medicine/Mort/Vive_la_mort/Vive_la_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vive la mort est un film suisse réalisé par Francis Reusser, sorti en 1969. Il a été présenté à la Quinzaine des réalisateurs, au Festival de Cannes 1969. Sur un scénario de Francis Reusser et Patricia Moraz et une musique de son frère Patrick
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme et une femme font un voyage alpestre au cours duquel ils rencontrent différents personnages caractéristiques de la société suisse et commettent un double meurtre symbolique.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Vive la  mort
 Réalisé par : Francis Reusser
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Françoise Prouvost
 Édouard Niermans</t>
@@ -614,9 +632,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été présenté à la Quinzaine des réalisateurs, en sélection parallèle du festival de Cannes 1969[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été présenté à la Quinzaine des réalisateurs, en sélection parallèle du festival de Cannes 1969.
 </t>
         </is>
       </c>
